--- a/biology/Botanique/Echeveria_gibbiflora/Echeveria_gibbiflora.xlsx
+++ b/biology/Botanique/Echeveria_gibbiflora/Echeveria_gibbiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echeveria gibbiflora est une espèce de plante à fleurs de la famille des Crassulaceae[2],[3],[4]. Elle a été décrite par le botaniste suisse Augustin Pyrame de Candolle en 1828. Elle vit au Mexique et au Guatemala[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echeveria gibbiflora est une espèce de plante à fleurs de la famille des Crassulaceae. Elle a été décrite par le botaniste suisse Augustin Pyrame de Candolle en 1828. Elle vit au Mexique et au Guatemala.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echeveria gibbiflora est une grande espèce du genre Echeveria[2],[1], qui produit des rosettes de 15 feuilles et une grande tige florale pouvant atteindre 1 m de hauteur et portant en moyenne 160 boutons[5]. Les fleurs rouges, tubulaires font environ 2,5 cm de long ; elles possèdent 10 étamines et 5 styles[5],[6]. Elles s'ouvrent entre septembre et janvier[2],[5]. Chaque fruit, une fois sec, laisse échapper environ 200 petites graines[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echeveria gibbiflora est une grande espèce du genre Echeveria qui produit des rosettes de 15 feuilles et une grande tige florale pouvant atteindre 1 m de hauteur et portant en moyenne 160 boutons. Les fleurs rouges, tubulaires font environ 2,5 cm de long ; elles possèdent 10 étamines et 5 styles,. Elles s'ouvrent entre septembre et janvier,. Chaque fruit, une fois sec, laisse échapper environ 200 petites graines.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echeveria gibbiflora a été utilisé dans la médecine traditionnelle du Mexique comme contraceptif féminin, en rinçage vaginal après les rapports sexuels[7],[3].
-L'espèce possède plusieurs cultivars, E. gibbiflora 'Carunculata' (ou 'Caronculata')[8], E. gibbiflora 'Metallica' et E. gibbiflora 'Violescens'[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echeveria gibbiflora a été utilisé dans la médecine traditionnelle du Mexique comme contraceptif féminin, en rinçage vaginal après les rapports sexuels,.
+L'espèce possède plusieurs cultivars, E. gibbiflora 'Carunculata' (ou 'Caronculata'), E. gibbiflora 'Metallica' et E. gibbiflora 'Violescens'.
 </t>
         </is>
       </c>
